--- a/Task 1 Data validation.xlsx
+++ b/Task 1 Data validation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA_15\excel\day 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA_15\Github data\Task 1\DA_15_Task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1634032C-7A98-4EE8-BE0F-646DA7F1725A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A02963-BAA3-4669-8FBF-2583C34B9F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CB3C0B3-824D-4EFB-8992-C573229AED47}"/>
   </bookViews>
@@ -154,10 +154,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +495,7 @@
   <dimension ref="B2:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,10 +535,10 @@
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
@@ -565,14 +565,14 @@
       <c r="I3" s="3">
         <v>829</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -679,7 +679,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
+      <c r="C10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -691,7 +691,7 @@
       <formula1>2019</formula1>
       <formula2>2023</formula2>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="input correct rates" error="data is invalid" promptTitle="rates must be between 200 to1000" prompt="input correct data" sqref="C3:I19" xr:uid="{9A749E25-4C01-4665-916B-581CF70D3AD6}">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="input correct rates" error="data is invalid" promptTitle="rates must be between 100 to1000" prompt="input correct data" sqref="C3:I20" xr:uid="{580F45E7-C88D-4723-96FC-9D3428283696}">
       <formula1>200</formula1>
       <formula2>1000</formula2>
     </dataValidation>
